--- a/docs/scale-balls-oge.xlsx
+++ b/docs/scale-balls-oge.xlsx
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -263,9 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,6 +344,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +644,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J16"/>
+      <selection activeCell="I5" sqref="I5:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,551 +671,590 @@
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="I5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="F5" s="15"/>
+      <c r="I5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="I6" s="24">
-        <v>1</v>
-      </c>
-      <c r="J6" s="24">
-        <v>2</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <f>E6*C6</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="I7" s="24">
-        <v>2</v>
-      </c>
-      <c r="J7" s="24">
-        <v>2</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" ref="D7:D21" si="0">E7*C7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
+      <c r="J7" s="23">
+        <v>2</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="I8" s="24">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="I8" s="23">
         <v>3</v>
       </c>
-      <c r="J8" s="24">
-        <v>2</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="23">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="I9" s="24">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="I9" s="23">
         <v>4</v>
       </c>
-      <c r="J9" s="24">
-        <v>2</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="23">
+        <v>2</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8"/>
-      <c r="I10" s="21">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7"/>
+      <c r="I10" s="20">
         <v>5</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>3</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="I11" s="22">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="I11" s="21">
         <v>6</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <v>3</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
-      <c r="I12" s="22">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="I12" s="21">
         <v>7</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>3</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>8</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="I13" s="22">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="I13" s="21">
         <v>8</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>3</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>9</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="19">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="E14" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="I14" s="21">
         <v>9</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>3</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>10</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="17">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="I15" s="21">
         <v>10</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>3</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>11</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="25">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="24">
         <v>11</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <v>4</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>12</v>
       </c>
-      <c r="C17" s="29">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="25">
+      <c r="C17" s="28">
+        <v>2</v>
+      </c>
+      <c r="D17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="24">
         <v>12</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <v>4</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>13</v>
       </c>
-      <c r="C18" s="29">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="25">
+      <c r="C18" s="28">
+        <v>2</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="24">
         <v>13</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <v>4</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>14</v>
       </c>
-      <c r="C19" s="29">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="25">
+      <c r="C19" s="28">
+        <v>2</v>
+      </c>
+      <c r="D19" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="24">
         <v>14</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>4</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>15</v>
       </c>
-      <c r="C20" s="29">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>2</v>
-      </c>
-      <c r="I20" s="25">
+      <c r="C20" s="28">
+        <v>2</v>
+      </c>
+      <c r="D20" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="I20" s="24">
         <v>15</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <v>4</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>16</v>
       </c>
-      <c r="C21" s="29">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="I21" s="23">
+      <c r="C21" s="28">
+        <v>2</v>
+      </c>
+      <c r="D21" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="I21" s="22">
         <v>16</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="I22" s="23">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="I22" s="22">
         <v>17</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="I23" s="23">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="I23" s="22">
         <v>18</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="I24" s="23">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="I24" s="22">
         <v>19</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="I25" s="23">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="I25" s="22">
         <v>20</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="I26" s="23">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="I26" s="22">
         <v>21</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5">
-        <f>SUM(E6:E32)</f>
-        <v>6.9</v>
-      </c>
-      <c r="F34" s="4">
-        <f>SUM(F6:F32)</f>
-        <v>4</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4">
+        <f>SUM(D6:D21)</f>
+        <v>9.9</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
+      <c r="B36" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E21">

--- a/docs/scale-balls-oge.xlsx
+++ b/docs/scale-balls-oge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Documents\GitHub\oge-26\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Documents\GitHub\oge-26\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,10 +801,10 @@
       </c>
       <c r="D10" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
@@ -884,10 +884,10 @@
       </c>
       <c r="D13" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E13" s="18">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F13" s="10"/>
       <c r="I13" s="21">
@@ -1245,7 +1245,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="4">
         <f>SUM(D6:D21)</f>
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>

--- a/docs/scale-balls-oge.xlsx
+++ b/docs/scale-balls-oge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Documents\GitHub\oge-26\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Documents\GitHub\oge-26\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I16" sqref="I16:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,10 +801,10 @@
       </c>
       <c r="D10" s="29">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="16">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
@@ -884,10 +884,10 @@
       </c>
       <c r="D13" s="29">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="18">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="10"/>
       <c r="I13" s="21">
@@ -938,10 +938,10 @@
       </c>
       <c r="D15" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F15" s="10"/>
       <c r="I15" s="21">
@@ -1078,10 +1078,10 @@
       </c>
       <c r="D20" s="29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E20" s="18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F20" s="10"/>
       <c r="I20" s="24">
@@ -1245,7 +1245,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="4">
         <f>SUM(D6:D21)</f>
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>

--- a/docs/scale-balls-oge.xlsx
+++ b/docs/scale-balls-oge.xlsx
@@ -644,7 +644,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,10 +801,10 @@
       </c>
       <c r="D10" s="29">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E10" s="16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
@@ -829,10 +829,10 @@
       </c>
       <c r="D11" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F11" s="10"/>
       <c r="I11" s="21">
@@ -938,10 +938,10 @@
       </c>
       <c r="D15" s="29">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E15" s="16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F15" s="10"/>
       <c r="I15" s="21">
@@ -965,10 +965,10 @@
       </c>
       <c r="D16" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E16" s="17">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
@@ -1245,7 +1245,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="4">
         <f>SUM(D6:D21)</f>
-        <v>11</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>

--- a/docs/scale-balls-oge.xlsx
+++ b/docs/scale-balls-oge.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>вес</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>программа</t>
+  </si>
+  <si>
+    <t>ТОГЭ</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -262,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,9 +313,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,6 +353,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +656,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +666,8 @@
     <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="3.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="3.140625" style="1" customWidth="1"/>
     <col min="9" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
@@ -662,7 +675,11 @@
     <row r="1" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="30">
+        <v>45978</v>
+      </c>
+    </row>
     <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -671,7 +688,9 @@
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="14" t="s">
         <v>2</v>
       </c>
@@ -682,439 +701,439 @@
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <f>E6*C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="I6" s="23">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
+      <c r="J6" s="22">
         <v>2</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <f t="shared" ref="D7:D21" si="0">E7*C7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>2</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>2</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>3</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>3</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>2</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>4</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>2</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>5</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.8</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>5</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>3</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>6</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.8</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>6</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>3</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="7"/>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>7</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>3</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>8</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.8</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>8</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>3</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>9</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>0.9</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>9</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>3</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>10</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>0.7</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>10</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>3</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>11</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>0.8</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <v>11</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="23">
         <v>4</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>12</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>2</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="F17" s="10"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>12</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="23">
         <v>4</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>13</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>2</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="F18" s="10"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <v>13</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="23">
         <v>4</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>14</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>2</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>0</v>
       </c>
       <c r="F19" s="10"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <v>14</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="23">
         <v>4</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>15</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>2</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>0.9</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="I20" s="24">
+      <c r="I20" s="23">
         <v>15</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="23">
         <v>4</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>16</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>2</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>0</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <v>16</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>5</v>
       </c>
     </row>
@@ -1125,10 +1144,10 @@
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <v>17</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>5</v>
       </c>
     </row>
@@ -1139,10 +1158,10 @@
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <v>18</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <v>5</v>
       </c>
     </row>
@@ -1153,10 +1172,10 @@
       <c r="D24" s="10"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <v>19</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>5</v>
       </c>
     </row>
@@ -1167,10 +1186,10 @@
       <c r="D25" s="10"/>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <v>20</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>5</v>
       </c>
     </row>
@@ -1181,10 +1200,10 @@
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <v>21</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <v>5</v>
       </c>
     </row>
@@ -1254,7 +1273,7 @@
       <c r="J34" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
+      <c r="B36" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E21">

--- a/docs/scale-balls-oge.xlsx
+++ b/docs/scale-balls-oge.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>вес</t>
   </si>
@@ -63,9 +63,6 @@
     <t>кодировка адреса</t>
   </si>
   <si>
-    <t>запросы поисковых систем</t>
-  </si>
-  <si>
     <t>поиск путей в графе</t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>ТОГЭ</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
+    <t>круги Эйлера</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -271,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,6 +368,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,8 +688,8 @@
     <row r="2" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="30">
-        <v>45978</v>
+      <c r="F4" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>2</v>
@@ -717,7 +729,9 @@
       <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
       <c r="I6" s="22">
         <v>1</v>
       </c>
@@ -744,7 +758,9 @@
       <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
       <c r="I7" s="22">
         <v>2</v>
       </c>
@@ -771,7 +787,9 @@
       <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
       <c r="I8" s="22">
         <v>3</v>
       </c>
@@ -798,7 +816,9 @@
       <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
       <c r="I9" s="22">
         <v>4</v>
       </c>
@@ -825,7 +845,9 @@
       <c r="E10" s="15">
         <v>0.8</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="I10" s="19">
         <v>5</v>
@@ -853,7 +875,9 @@
       <c r="E11" s="15">
         <v>0.8</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
       <c r="I11" s="20">
         <v>6</v>
       </c>
@@ -880,7 +904,9 @@
       <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="I12" s="20">
         <v>7</v>
@@ -893,7 +919,7 @@
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" s="26">
         <v>8</v>
@@ -908,7 +934,9 @@
       <c r="E13" s="17">
         <v>0.8</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
       <c r="I13" s="20">
         <v>8</v>
       </c>
@@ -920,7 +948,7 @@
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="26">
         <v>9</v>
@@ -935,7 +963,9 @@
       <c r="E14" s="17">
         <v>0.9</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
       <c r="I14" s="20">
         <v>9</v>
       </c>
@@ -947,7 +977,7 @@
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="26">
         <v>10</v>
@@ -962,7 +992,9 @@
       <c r="E15" s="15">
         <v>0.7</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
       <c r="I15" s="20">
         <v>10</v>
       </c>
@@ -974,7 +1006,7 @@
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="26">
         <v>11</v>
@@ -989,7 +1021,9 @@
       <c r="E16" s="16">
         <v>0.8</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="23">
@@ -1003,7 +1037,7 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="26">
         <v>12</v>
@@ -1018,7 +1052,9 @@
       <c r="E17" s="15">
         <v>0</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10">
+        <v>2</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="23">
         <v>12</v>
@@ -1031,7 +1067,7 @@
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="26">
         <v>13</v>
@@ -1046,7 +1082,9 @@
       <c r="E18" s="17">
         <v>1</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10">
+        <v>2</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="23">
         <v>13</v>
@@ -1059,7 +1097,7 @@
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="26">
         <v>14</v>
@@ -1087,7 +1125,7 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="26">
         <v>15</v>
@@ -1102,7 +1140,9 @@
       <c r="E20" s="17">
         <v>0.9</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
       <c r="I20" s="23">
         <v>15</v>
       </c>
@@ -1114,7 +1154,7 @@
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="26">
         <v>16</v>
@@ -1266,7 +1306,10 @@
         <f>SUM(D6:D21)</f>
         <v>12.600000000000001</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="4">
+        <f>SUM(F6:F21)</f>
+        <v>14</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
